--- a/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/AuthenticationActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="766" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>REQUEST_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -220,10 +216,6 @@
     <rPh sb="10" eb="13">
       <t>キタイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -479,10 +471,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NOTE</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -577,6 +565,21 @@
   </si>
   <si>
     <t>303</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_NUM</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1213,7 +1216,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1229,7 +1232,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
@@ -1243,13 +1246,13 @@
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1269,94 +1272,94 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="E5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="F5" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="G5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="H5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="I5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="J5" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="L5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="M5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="N5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="O5" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="P5" s="44" t="s">
         <v>85</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="E8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="G8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="J8" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -1376,13 +1379,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1406,7 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -1727,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -1742,12 +1745,12 @@
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2270,10 +2273,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2531,13 +2534,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -3084,7 +3087,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3685,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -3700,12 +3705,12 @@
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -4228,10 +4233,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4489,13 +4494,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -4753,7 +4758,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5042,7 +5047,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5301,7 +5306,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5326,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -5645,29 +5650,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -6190,7 +6195,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -6449,10 +6454,10 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -6982,10 +6987,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="19"/>
     </row>
@@ -6994,10 +6999,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -7009,69 +7014,69 @@
     </row>
     <row r="17" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="F18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="G18" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="I18" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="J18" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="37" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -7082,29 +7087,29 @@
     </row>
     <row r="21" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
@@ -7112,7 +7117,7 @@
     </row>
     <row r="26" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7371,31 +7376,31 @@
     </row>
     <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7414,7 +7419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7737,85 +7744,85 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -8338,7 +8345,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -8597,10 +8604,10 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -9130,10 +9137,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -9142,32 +9149,32 @@
         <v>1</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="19"/>
     </row>
@@ -9179,69 +9186,69 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="F21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="G21" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="H21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="I21" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="J21" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>55</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -9252,29 +9259,29 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -9282,69 +9289,69 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B29" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="F29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="G29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="H29" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="I29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="J29" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="37" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -9355,34 +9362,34 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9655,8 +9662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -9980,27 +9987,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -10523,10 +10530,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -10784,13 +10791,13 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -11048,7 +11055,7 @@
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A11" s="47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -11337,7 +11344,7 @@
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11596,7 +11603,7 @@
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
